--- a/data/3FEB_25_26_j1/clutch_data_25_26_3FEB.xlsx
+++ b/data/3FEB_25_26_j1/clutch_data_25_26_3FEB.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>J. AYALA AYLLÓN</t>
+          <t>S. RODRIGUEZ GREGORIO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>M. BATLLE BERNARDO</t>
+          <t>J. AYALA AYLLÓN</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>S. RODRIGUEZ GREGORIO</t>
+          <t>M. DEL VALLE REGALADO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>M. DEL VALLE REGALADO</t>
+          <t>M. BATLLE BERNARDO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>B. OJEDA OCHOA</t>
+          <t>A. ARMSTRONG</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A. ARMSTRONG</t>
+          <t>L. VALERA VILLEGAS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>L. VALERA VILLEGAS</t>
+          <t>B. OJEDA OCHOA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A. APARICIO IZQUIERDO</t>
+          <t>P. RODRIGUEZ RIVERO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1483,25 +1483,25 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>15.06</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>-2</v>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>I. REBERGEN</t>
+          <t>A. APARICIO IZQUIERDO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1556,35 +1556,33 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13.25</v>
+        <v>15.06</v>
       </c>
       <c r="X14" t="n">
         <v>-2</v>
@@ -1609,7 +1607,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P. RODRIGUEZ RIVERO</t>
+          <t>I. REBERGEN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1639,15 +1637,17 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1656,16 +1656,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="X15" t="n">
         <v>-2</v>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>A. SANTANA OJEDA</t>
+          <t>J. JIMENEZ HERNANDEZ</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3218,7 +3218,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3227,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>A. MARTIN GONZALEZ</t>
+          <t>A. SANTANA OJEDA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>J. JIMENEZ HERNANDEZ</t>
+          <t>A. MARTIN GONZALEZ</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3380,19 +3380,19 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
